--- a/Componentenlijsten/ComponentenlijstActualPCB.xlsx
+++ b/Componentenlijsten/ComponentenlijstActualPCB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazim\Desktop\POZ\Autonomous_Cart_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazim\Desktop\POZ\Autonomous_Cart_2\Componentenlijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE836E95-C4EB-4A6E-9BFD-9E7CD4A43B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CF2C91-2DD2-4100-BCAA-08A12016A455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8733DA9E-9F22-460B-BD48-096CF79066EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Component</t>
   </si>
@@ -56,33 +56,18 @@
     <t>COMPONENTENLIJST ACTUAL PCB</t>
   </si>
   <si>
-    <t>2x15</t>
-  </si>
-  <si>
     <t>https://www.conrad.be/p/econ-connect-female-header-standaard-aantal-rijen-2-aantal-polen-per-rij-15-blg2x15-1-stuks-1492273</t>
   </si>
   <si>
-    <t>2x17</t>
-  </si>
-  <si>
     <t>https://www.conrad.be/p/econ-connect-female-header-standaard-aantal-rijen-2-aantal-polen-per-rij-17-blg2x17-1-stuks-1492276</t>
   </si>
   <si>
-    <t>2x10</t>
-  </si>
-  <si>
     <t>https://www.conrad.be/p/econ-connect-female-header-standaard-aantal-rijen-2-aantal-polen-per-rij-10-blg2x10-1-stuks-1492267</t>
   </si>
   <si>
     <t>https://www.conrad.be/p/econ-connect-female-header-standaard-aantal-rijen-2-aantal-polen-per-rij-8-blg2x8-1-stuks-1492298</t>
   </si>
   <si>
-    <t>2x8</t>
-  </si>
-  <si>
-    <t>1x8</t>
-  </si>
-  <si>
     <t>https://www.conrad.be/p/econ-connect-female-header-standaard-aantal-rijen-1-aantal-polen-per-rij-8-blg1x8-1-stuks-1492302</t>
   </si>
   <si>
@@ -92,13 +77,43 @@
     <t>1x2 headers 30 A</t>
   </si>
   <si>
-    <t>1x2 headers 15 A</t>
-  </si>
-  <si>
     <t>https://www.mouser.be/ProductDetail/CUI-Devices/TB002-500-02BE?qs=sGAEpiMZZMvZTcaMAxB2AHpdXjUJWjdtGYWJDK8ID%2FsZJpc5bbOw%2FQ%3D%3D</t>
   </si>
   <si>
     <t>https://nl.rs-online.com/web/p/heatsinks/1898628/</t>
+  </si>
+  <si>
+    <t>2x17 header</t>
+  </si>
+  <si>
+    <t>2x10 header</t>
+  </si>
+  <si>
+    <t>2x8 header</t>
+  </si>
+  <si>
+    <t>1x8 header</t>
+  </si>
+  <si>
+    <t>2x15 header</t>
+  </si>
+  <si>
+    <t>Heatsink</t>
+  </si>
+  <si>
+    <t>mouser</t>
+  </si>
+  <si>
+    <t>conrad</t>
+  </si>
+  <si>
+    <t>rs online</t>
+  </si>
+  <si>
+    <t>1x2 headers</t>
+  </si>
+  <si>
+    <t>prijzen op 18-5-20</t>
   </si>
 </sst>
 </file>
@@ -108,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +155,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,12 +185,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D078FBA-0249-4A49-9B31-EC45C35062C4}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +548,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>1.54</v>
@@ -533,67 +560,131 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.48</v>
+      </c>
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15.67</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +694,11 @@
     <hyperlink ref="E6" r:id="rId3" xr:uid="{1F48DF56-F0F8-42F9-9692-0748FEA18D47}"/>
     <hyperlink ref="E12" r:id="rId4" xr:uid="{73587338-C791-4EF2-8D2F-C3EC2F0A6951}"/>
     <hyperlink ref="E13" r:id="rId5" xr:uid="{29C3ADEF-E2EF-416D-8A4D-877AF8612729}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{F3D547F3-E21A-4DC6-9910-BCF03058C7D5}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{B9874EBE-4B2A-4C75-8B66-1700B5F9FBA8}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{C614037D-B949-40B0-8D4F-0FA37BC284DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>